--- a/Files/Excel/Lexus.xlsx
+++ b/Files/Excel/Lexus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C08464-80BF-4D8E-AD87-8D709ED47B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CFAF1-5896-4FD8-A614-5B9B0195F555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,54 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Lexus CT</t>
-  </si>
-  <si>
-    <t>Lexus ES</t>
-  </si>
-  <si>
-    <t>Lexus GS</t>
-  </si>
-  <si>
-    <t>Lexus GX</t>
-  </si>
-  <si>
-    <t>Lexus HS</t>
-  </si>
-  <si>
-    <t>Lexus HS 250h</t>
-  </si>
-  <si>
-    <t>Lexus IS</t>
-  </si>
-  <si>
-    <t>Lexus IS-F</t>
-  </si>
-  <si>
-    <t>Lexus LF</t>
-  </si>
-  <si>
-    <t>Lexus LS</t>
-  </si>
-  <si>
-    <t>Lexus LX</t>
-  </si>
-  <si>
-    <t>Lexus RX</t>
-  </si>
-  <si>
-    <t>Lexus RX 400h</t>
-  </si>
-  <si>
-    <t>Lexus SC</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>GX</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Lexus</t>
   </si>
 </sst>
 </file>
@@ -430,135 +427,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
